--- a/tipulidae_eredmenyek.xlsx
+++ b/tipulidae_eredmenyek.xlsx
@@ -20,12 +20,15 @@
     <sheet name="Campia Romana" r:id="rId14" sheetId="12"/>
     <sheet name="Subcarpatii" r:id="rId15" sheetId="13"/>
     <sheet name="Regionkenti adatok" r:id="rId16" sheetId="14"/>
+    <sheet name="Honaponkent gyujtott egyedek" r:id="rId17" sheetId="15"/>
+    <sheet name="Honaponkenti gyujtesi alkalmak" r:id="rId18" sheetId="16"/>
+    <sheet name="Honaponkenti befogott fajok" r:id="rId19" sheetId="17"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8300" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8384" uniqueCount="1402">
   <si>
     <t>id</t>
   </si>
@@ -4195,6 +4198,42 @@
   </si>
   <si>
     <t>Subcarpatii</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>okt</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dec</t>
   </si>
 </sst>
 </file>
@@ -8324,6 +8363,2130 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>489.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>

--- a/tipulidae_eredmenyek.xlsx
+++ b/tipulidae_eredmenyek.xlsx
@@ -23,12 +23,13 @@
     <sheet name="Honaponkent gyujtott egyedek" r:id="rId17" sheetId="15"/>
     <sheet name="Honaponkenti gyujtesi alkalmak" r:id="rId18" sheetId="16"/>
     <sheet name="Honaponkenti befogott fajok" r:id="rId19" sheetId="17"/>
+    <sheet name="Fajok szerinti gyujtese szama" r:id="rId20" sheetId="18"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8384" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8503" uniqueCount="1505">
   <si>
     <t>id</t>
   </si>
@@ -4234,6 +4235,315 @@
   </si>
   <si>
     <t>dec</t>
+  </si>
+  <si>
+    <t>Tipulidae...Ctenophorinae...Ctenophora....Cnemoncosis....festiva...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Ctenophorinae...Dictenidia...NA...bimaculata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Ctenophorinae...Ctenophora....Cnemoncosis....ornata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...analis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....helvola...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Ctenophorinae...Tanyptera....Tanyptera....atrata...atrata</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Tipula....orientalis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Ctenophorinae...Ctenophora....Ctenophora....flaveolata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Acutipula....fulvipennis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Ctenophorinae...Ctenophora....Ctenophora....guttata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Ctenophorinae...Ctenophora....Ctenophora....pectinicornis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Beringotipula....unca...unca</t>
+  </si>
+  <si>
+    <t>Tipulidae...Dolichopezinae...Dolichopeza....Dolichopeza....albipes...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Dolichopezinae...Dolichopeza....Dolichopeza....nitida...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...aculeata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...appendiculata...appendiculata</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...cornicina...cornicina</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...crocata...crocata</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...croceiventris...lindneri</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...dorsalis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...flavescens...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...lamellata...lamellata</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...lunulicornis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...pratensis...pratensis</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...quadrifaria...quadrifaria</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...quadristriata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...scalaris...scalaris</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...scurra...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...submaculosa...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nephrotoma...NA...tenuipes...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Nigrotipula...NA...nigra...nigra</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Acutipula....balcanica...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Acutipula....bosnica...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Acutipula....latifurca...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Acutipula....luna...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Acutipula....tenuicornis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Dendrotipula....flavolineata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Emodotipula....obscuriventris...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....affinis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....bispina...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....fascingulata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....fascipennis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....heros...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....humilis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....laetabilis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....limitata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....livida...livida</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....lunata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....mellea...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....pannonia...pannonia</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....peliostigma...peliostigma</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....recticornis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....soosi...soosi</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....truncata...truncata</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....vernalis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Lunatipula....verrucosa...verrucosa</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Mediotipula....siebkei...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Mediotipula....stigmatella...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Platytipula....luteipennis...luteipennis</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Pterelachisus....crassiventris...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Pterelachisus....irrorata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Pterelachisus....luridorostris...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Pterelachisus....neurotica...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Pterelachisus....pabulina...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Pterelachisus....plitviciensis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Pterelachisus....pseudocrassiventris...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Pterelachisus....pseudopruinosa...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Pterelachisus....pseudovariipennis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Pterelachisus....submarmorata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Pterelachisus....truncorum...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Pterelachisus....varipennis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Savtshenkia....alpha...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Vestiplex....hemiptera...hemiptera</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Savtshenkia....benesignata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Savtshenkia....cheethami...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Savtshenkia....gimmerthali...gimmerthali</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Savtshenkia....grisescens...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Savtshenkia....limbata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Savtshenkia....obsoleta...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Savtshenkia....signata...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Savtshenkia....simulans...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Savtshenkia....subnodicornis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Savtshenkia....subsignata...subsignata</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Schummelia....variicornis...variicornis</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Schummelia....zonaria...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Tipula....italica...errans</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Tipula....oleracea...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Tipula....paludosa...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Tipula....subcunctans...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Vestiplex....excisa...carpatica</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Vestiplex....hortorum...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Vestiplex....montana...montana</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Vestiplex....nubeculosa...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Vestiplex....pallidicosta...pallidicosta</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Vestiplex....scripta...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Yamatotipula....caesia...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Yamatotipula....coerulescens...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Yamatotipula....couckei...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Yamatotipula....lateralis...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Yamatotipula....montium...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Yamatotipula....pierrei...NA</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Yamatotipula....pruinosa...pruinosa</t>
+  </si>
+  <si>
+    <t>Tipulidae...Tipulinae...Tipula....Yamatotipula....submontium...NA</t>
   </si>
 </sst>
 </file>
@@ -10487,6 +10797,5355 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>

--- a/tipulidae_eredmenyek.xlsx
+++ b/tipulidae_eredmenyek.xlsx
@@ -10194,13 +10194,13 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -10232,25 +10232,25 @@
         <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>107.0</v>
+        <v>37.0</v>
       </c>
       <c r="G4" t="n">
-        <v>56.0</v>
+        <v>24.0</v>
       </c>
       <c r="H4" t="n">
-        <v>234.0</v>
+        <v>48.0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.0</v>
+        <v>17.0</v>
       </c>
       <c r="J4" t="n">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="L4" t="n">
         <v>2.0</v>
@@ -10273,25 +10273,25 @@
         <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="F5" t="n">
-        <v>66.0</v>
+        <v>26.0</v>
       </c>
       <c r="G5" t="n">
-        <v>47.0</v>
+        <v>30.0</v>
       </c>
       <c r="H5" t="n">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
       <c r="I5" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="J5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K5" t="n">
         <v>5.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.0</v>
       </c>
       <c r="L5" t="n">
         <v>2.0</v>
@@ -10317,7 +10317,7 @@
         <v>3.0</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="G6" t="n">
         <v>2.0</v>
@@ -10326,7 +10326,7 @@
         <v>4.0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
@@ -10355,25 +10355,25 @@
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I7" t="n">
         <v>4.0</v>
       </c>
-      <c r="F7" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.0</v>
-      </c>
       <c r="J7" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="L7" t="n">
         <v>1.0</v>
@@ -10440,7 +10440,7 @@
         <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="G9" t="n">
         <v>2.0</v>
@@ -10481,16 +10481,16 @@
         <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>46.0</v>
+        <v>32.0</v>
       </c>
       <c r="G10" t="n">
-        <v>49.0</v>
+        <v>33.0</v>
       </c>
       <c r="H10" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="I10" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="J10" t="n">
         <v>0.0</v>
@@ -10522,16 +10522,16 @@
         <v>0.0</v>
       </c>
       <c r="F11" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="G11" t="n">
         <v>3.0</v>
       </c>
       <c r="H11" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="I11" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
@@ -10645,10 +10645,10 @@
         <v>1.0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G14" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
@@ -10657,7 +10657,7 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="K14" t="n">
         <v>0.0</v>
@@ -10689,7 +10689,7 @@
         <v>0.0</v>
       </c>
       <c r="G15" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>

--- a/tipulidae_eredmenyek.xlsx
+++ b/tipulidae_eredmenyek.xlsx
@@ -21,15 +21,16 @@
     <sheet name="Subcarpatii" r:id="rId15" sheetId="13"/>
     <sheet name="Regionkenti adatok" r:id="rId16" sheetId="14"/>
     <sheet name="Honaponkent gyujtott egyedek" r:id="rId17" sheetId="15"/>
-    <sheet name="Honaponkenti gyujtesi alkalmak" r:id="rId18" sheetId="16"/>
-    <sheet name="Honaponkenti befogott fajok" r:id="rId19" sheetId="17"/>
+    <sheet name="Honaponkenti gyujtesi napok sza" r:id="rId18" sheetId="16"/>
+    <sheet name="Honaponkenti fajok szama" r:id="rId19" sheetId="17"/>
     <sheet name="Fajok szerinti gyujtese szama" r:id="rId20" sheetId="18"/>
+    <sheet name="Fajok szerinti gyujtott egyedek" r:id="rId21" sheetId="19"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8503" uniqueCount="1505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8622" uniqueCount="1505">
   <si>
     <t>id</t>
   </si>
@@ -16146,6 +16147,5355 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
